--- a/biology/Médecine/Josephine_Nambooze/Josephine_Nambooze.xlsx
+++ b/biology/Médecine/Josephine_Nambooze/Josephine_Nambooze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josephine Namboze (parfois orthographié Josephine Nambooze), née en 1934, est la première femme médecin formée en Afrique de l'Est. Elle est également la première femme à avoir dirigé un institut de santé publique sur le continent africain.
 </t>
@@ -511,10 +523,12 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Josephine Namboze est née en 1934 à Nsambya, dans la banlieue de Kampala en Ouganda, à l'époque sous occupation coloniale britannique[1]. Elle est l'aînée des 13 enfants de Joseph et Maria Magdalena Lule[2].
-Josephine Namboze est allée à l'école primaire à Nsambya, puis a rejoint collège Namagunga grâce à une bourse d'études. Elle a ensuite changé d'établissement pour le collège Mamilyango afin de pouvoir étudier les matières scientifiques[3]. Elle attribue son attrait de la médecine à un voisin médecin, dont les enfants jouaient avec ses frères, et aux femmes médecins expatriées travaillant à l'hôpital local[4]. Le soutien de sa famille a été important dans sa persévérance dans une voie jusqu'alors fermée aux femmes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Josephine Namboze est née en 1934 à Nsambya, dans la banlieue de Kampala en Ouganda, à l'époque sous occupation coloniale britannique. Elle est l'aînée des 13 enfants de Joseph et Maria Magdalena Lule.
+Josephine Namboze est allée à l'école primaire à Nsambya, puis a rejoint collège Namagunga grâce à une bourse d'études. Elle a ensuite changé d'établissement pour le collège Mamilyango afin de pouvoir étudier les matières scientifiques. Elle attribue son attrait de la médecine à un voisin médecin, dont les enfants jouaient avec ses frères, et aux femmes médecins expatriées travaillant à l'hôpital local. Le soutien de sa famille a été important dans sa persévérance dans une voie jusqu'alors fermée aux femmes.
 Josephine Namboze a eu 4 enfants.
 </t>
         </is>
@@ -546,15 +560,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études
-Josephine Namboze a obtenu son diplôme en 1959 à l'Université Makerere, où elle avait été la première femme à effectuer un cursus médical. Elle fut ainsi la première femme médecin formée en Afrique de l'Est[1], la seconde étant Madeline Nyamwanza-Makonese. Elle a reçu sa licence de médecine et chirurgie des mains de la reine-mère Elizabeth à Londres[3]. Le diplôme a été converti en Bachelor of Medicine and Surgery en 1963 à la création de l'Université d'Afrique orientale lors de l'indépendance. Cette université fut par la suite scindée en université Makerere, université de Nairobi, et université de Dar es Salaam.
-En 1962, Josephine Namboze a commencé à travailler au centre de santé de Kasangati. Elle y a développé un réseau d'infirmières réalisant des visites à domicile et débuté avec succès une sensibilisation à la santé publique et à la prévention[3].
-Au cours de ses études, Josephine Namboze s'est heurtée à de nombreux préjugés discriminatoires[4], bien que les attitudes aient ensuite changé lorsqu'elle fut diplômée[3].
-Recherche en santé publique
-Sa carrière s'est constituée autour de la santé publique, en s'intéressant notamment aux causes économiques et à la prévention du kwashiorkor et de la poliomyélite[1], ainsi qu'à la mortalité maternelle et infantile.
-Josephine Namboze a dirigé l'institut de santé publique de l'Université Makerere de 1978 à 1988. Elle a ensuite été nommée professeur dans cette même université[2].
-Carrière à l'OMS
-Elle fut ensuite la première représentante de l'OMS au Botswana[4], puis la directrice régionale de la branche de Brazzaville, responsable de 46 pays[4].
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Josephine Namboze a obtenu son diplôme en 1959 à l'Université Makerere, où elle avait été la première femme à effectuer un cursus médical. Elle fut ainsi la première femme médecin formée en Afrique de l'Est, la seconde étant Madeline Nyamwanza-Makonese. Elle a reçu sa licence de médecine et chirurgie des mains de la reine-mère Elizabeth à Londres. Le diplôme a été converti en Bachelor of Medicine and Surgery en 1963 à la création de l'Université d'Afrique orientale lors de l'indépendance. Cette université fut par la suite scindée en université Makerere, université de Nairobi, et université de Dar es Salaam.
+En 1962, Josephine Namboze a commencé à travailler au centre de santé de Kasangati. Elle y a développé un réseau d'infirmières réalisant des visites à domicile et débuté avec succès une sensibilisation à la santé publique et à la prévention.
+Au cours de ses études, Josephine Namboze s'est heurtée à de nombreux préjugés discriminatoires, bien que les attitudes aient ensuite changé lorsqu'elle fut diplômée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Josephine_Nambooze</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Josephine_Nambooze</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recherche en santé publique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa carrière s'est constituée autour de la santé publique, en s'intéressant notamment aux causes économiques et à la prévention du kwashiorkor et de la poliomyélite, ainsi qu'à la mortalité maternelle et infantile.
+Josephine Namboze a dirigé l'institut de santé publique de l'Université Makerere de 1978 à 1988. Elle a ensuite été nommée professeur dans cette même université.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Josephine_Nambooze</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Josephine_Nambooze</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carrière à l'OMS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fut ensuite la première représentante de l'OMS au Botswana, puis la directrice régionale de la branche de Brazzaville, responsable de 46 pays.
 </t>
         </is>
       </c>
